--- a/Process Results/Unified_IBNP_ASL.xlsx
+++ b/Process Results/Unified_IBNP_ASL.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1240016056172039</v>
+        <v>0.133038835292596</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.006649321872076054</v>
+        <v>0.007211205533041639</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.004554440878449508</v>
+        <v>0.004739453675526316</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.006649321872076054</v>
+        <v>0.007211205533041639</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1240016056172039</v>
+        <v>0.133038835292596</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.006649321872076054</v>
+        <v>0.007211205533041639</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.004554440878449508</v>
+        <v>0.004739453675526316</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.006649321872076054</v>
+        <v>0.007211205533041639</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1240016056172039</v>
+        <v>0.133038835292596</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1154349460879561</v>
+        <v>0.1251894761526911</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07906695560527217</v>
+        <v>0.08227885339981753</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1154349460879561</v>
+        <v>0.1251894761526911</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.316109853103601</v>
+        <v>0.3391479204812974</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2703475866739251</v>
+        <v>0.293192606761083</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.1962391266935062</v>
+        <v>0.2022320799406921</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.2703475866739251</v>
+        <v>0.293192606761083</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.348033254507724</v>
+        <v>0.3391479204812974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2944513208405962</v>
+        <v>0.2951704477750785</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2162579013828532</v>
+        <v>0.2055242765936679</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2944513208405962</v>
+        <v>0.2951704477750785</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9971161974575372</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8080481166265474</v>
+        <v>0.8100215809104399</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8096836978162488</v>
+        <v>0.8101720324842954</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8080481166265474</v>
+        <v>0.8100215809104399</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9971161974575372</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9955733987230979</v>
+        <v>0.9956409675244818</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9906182436536</v>
+        <v>0.9927794756138005</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9955733987230979</v>
+        <v>0.9956409675244818</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3996,17 +3996,17 @@
         <v>1</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9981438168814724</v>
+        <v>0.9981163144287711</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9934921652160136</v>
+        <v>0.9955849763791038</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9981438168814724</v>
+        <v>0.9981163144287711</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4037,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
@@ -4075,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
@@ -4836,22 +4836,22 @@
         <v/>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.28587801474985</v>
+        <v>4.615928595949193</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.243778891134055</v>
+        <v>1.162603560857342</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1</v>
+        <v>1.071568389135525</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.000805626029287</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.020146674909162</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>1.005440729615792</v>
+        <v>1</v>
       </c>
       <c r="R38" s="4" t="n">
         <v>1</v>
@@ -4911,67 +4911,67 @@
         <v/>
       </c>
       <c r="C39" s="4" t="n">
-        <v>4.615928595949193</v>
+        <v>1</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.162603560857342</v>
+        <v>18.04220430107527</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.071568389135525</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4986,64 +4986,64 @@
         <v/>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1</v>
+        <v>2.289821814254859</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>18.04220430107527</v>
+        <v>1.004893002417025</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5061,10 +5061,10 @@
         <v/>
       </c>
       <c r="C41" s="4" t="n">
-        <v>2.289821814254859</v>
+        <v/>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.004893002417025</v>
+        <v>1</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>1</v>
@@ -5136,7 +5136,7 @@
         <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v/>
+        <v>1.184785641216405</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>1</v>
@@ -5211,13 +5211,13 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.184785641216405</v>
+        <v>1</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1</v>
+        <v>1.044370381104188</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1</v>
+        <v>1.090881340881341</v>
       </c>
       <c r="F43" s="4" t="n">
         <v>1</v>
@@ -5226,40 +5226,40 @@
         <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1</v>
+        <v>1.052707893464933</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5286,52 +5286,52 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1</v>
+        <v>7.987428571428572</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.044370381104188</v>
+        <v>1.274574331091715</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.090881340881341</v>
+        <v>1</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1</v>
+        <v>1.2896273013022</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1</v>
+        <v>6.181841922005571</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.052707893464933</v>
+        <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.118154808003717</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5361,25 +5361,25 @@
         <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>7.987428571428572</v>
+        <v/>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.274574331091715</v>
+        <v/>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.2896273013022</v>
+        <v>89.72093023255815</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>6.181841922005571</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.118154808003717</v>
+        <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
         <v>1</v>
@@ -5439,16 +5439,16 @@
         <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v/>
+        <v>3.857489093553078</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v/>
+        <v>1.270922342297059</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>89.72093023255815</v>
+        <v>1.184595610045482</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1</v>
+        <v>1.077831566647191</v>
       </c>
       <c r="H46" s="4" t="n">
         <v>1</v>
@@ -5514,16 +5514,16 @@
         <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v>3.857489093553078</v>
+        <v>17.03868887694788</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.270922342297059</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.184595610045482</v>
+        <v>1.243369390393894</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.077831566647191</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>1</v>
@@ -5589,13 +5589,13 @@
         <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>17.03868887694788</v>
+        <v/>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1</v>
+        <v>1.351224105461394</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.243369390393894</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
         <v>1</v>
@@ -5667,19 +5667,19 @@
         <v/>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.351224105461394</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1</v>
+        <v>2.097948932607786</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>2.012370311252993</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v>1.473527662105889</v>
       </c>
       <c r="J49" s="4" t="n">
         <v>1</v>
@@ -5742,19 +5742,19 @@
         <v/>
       </c>
       <c r="E50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v/>
       </c>
       <c r="F50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v/>
       </c>
       <c r="G50" s="4" t="n">
-        <v>2.097948932607786</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>2.012370311252993</v>
+        <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.473527662105889</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
         <v>1</v>
@@ -5817,16 +5817,16 @@
         <v/>
       </c>
       <c r="E51" s="4" t="n">
-        <v/>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v/>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1</v>
+        <v>164.6521159613462</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1</v>
+        <v>1.002920337326282</v>
       </c>
       <c r="I51" s="4" t="n">
         <v>1</v>
@@ -5892,22 +5892,22 @@
         <v/>
       </c>
       <c r="E52" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v/>
+      </c>
+      <c r="G52" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="F52" s="4" t="n">
+      <c r="H52" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="G52" s="4" t="n">
-        <v>164.6521159613462</v>
-      </c>
-      <c r="H52" s="4" t="n">
-        <v>1.002920337326282</v>
-      </c>
       <c r="I52" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5964,22 +5964,22 @@
         <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6036,16 +6036,16 @@
         <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v/>
+        <v>17.36040882194728</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1</v>
+        <v>1.134942521612494</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1</v>
+        <v>1.100988314950311</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1</v>
+        <v>2.586331738041511</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>1</v>
@@ -6111,16 +6111,16 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>17.36040882194728</v>
+        <v/>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.134942521612494</v>
+        <v/>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.100988314950311</v>
+        <v/>
       </c>
       <c r="F55" s="4" t="n">
-        <v>2.586331738041511</v>
+        <v>15.50902837489252</v>
       </c>
       <c r="G55" s="4" t="n">
         <v>1</v>
@@ -6195,7 +6195,7 @@
         <v/>
       </c>
       <c r="F56" s="4" t="n">
-        <v>15.50902837489252</v>
+        <v/>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6264,10 +6264,10 @@
         <v/>
       </c>
       <c r="D57" s="4" t="n">
-        <v/>
+        <v>2.54924</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6339,7 +6339,7 @@
         <v/>
       </c>
       <c r="D58" s="4" t="n">
-        <v>2.54924</v>
+        <v/>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6704,31 +6704,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.1803900182037247</v>
+        <v>0.0983896912722874</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.004554440878449508</v>
+        <v>0.004739453675526316</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.006649321872076054</v>
+        <v>0.007211205533041639</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.1240016056172039</v>
+        <v>0.133038835292596</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.0006264344856356215</v>
+        <v>0.0005108118658878474</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>5.092833366623081e-05</v>
+        <v>4.421449074900072e-05</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.0001978877985300615</v>
+        <v>0.0001991684822158559</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.05592131960629387</v>
+        <v>0.04335628285542219</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.006649321872076054</v>
+        <v>0.007211205533041639</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
@@ -6767,38 +6767,38 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.1803900182037247</v>
+        <v>0.0983896912722874</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.004554440878449508</v>
+        <v>0.004739453675526316</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.006649321872076054</v>
+        <v>0.007211205533041639</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.1240016056172039</v>
+        <v>0.133038835292596</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.0006264344856356215</v>
+        <v>0.0005108118658878474</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>5.092833366623081e-05</v>
+        <v>4.421449074900072e-05</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.0001978877985300615</v>
+        <v>0.0001991684822158559</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.05592131960629387</v>
+        <v>0.04335628285542219</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.006649321872076054</v>
+        <v>0.007211205533041639</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.635273926923179</v>
+        <v>2.216549420876857</v>
       </c>
       <c r="O3" s="22" t="n">
         <v>17.36040882194728</v>
@@ -6810,7 +6810,7 @@
         <v/>
       </c>
       <c r="R3" s="22" t="n">
-        <v>4.590531432443271</v>
+        <v>5.062624777828044</v>
       </c>
       <c r="S3" s="22" t="n">
         <v>17.36040882194728</v>
@@ -6831,41 +6831,41 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.2949870934457487</v>
+        <v>0.2180856132098414</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.07906695560527217</v>
+        <v>0.08227885339981753</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.1154349460879561</v>
+        <v>0.1251894761526911</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.1240016056172039</v>
+        <v>0.133038835292596</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.002875667196676753</v>
+        <v>0.002586048809052392</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.0008841366930663082</v>
+        <v>0.0007675816352568584</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.003435413083357007</v>
+        <v>0.003457646275713995</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.05592131960629387</v>
+        <v>0.04335628285542219</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.1154349460879561</v>
+        <v>0.1251894761526911</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.781940045665463</v>
+        <v>2.007838170706203</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>2.48193604004681</v>
+        <v>2.457886462734064</v>
       </c>
       <c r="P4" s="22" t="n">
         <v>2.341990842772453</v>
@@ -6874,10 +6874,10 @@
         <v>2.54924</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>3.950214227676388</v>
+        <v>4.175750505721583</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>5.11607209842269</v>
+        <v>5.430717849640094</v>
       </c>
       <c r="T4" s="22" t="n">
         <v>1.561394173870831</v>
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.5256493147654397</v>
+        <v>0.4378806186845883</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.1962391266935062</v>
+        <v>0.2022320799406921</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.2703475866739251</v>
+        <v>0.293192606761083</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.316109853103601</v>
+        <v>0.3391479204812974</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.01135950147437479</v>
+        <v>0.01079869462222123</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.004523307066588246</v>
+        <v>0.004168519287645354</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.005364033973193258</v>
+        <v>0.005398748750206009</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.1425568647931486</v>
+        <v>0.1105255705063564</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.2703475866739251</v>
+        <v>0.293192606761083</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.03179516754162</v>
+        <v>1.021429396170031</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.102012147254473</v>
+        <v>1.016279299772525</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.089158310836869</v>
+        <v>1.006745876152352</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.100988314950311</v>
+        <v>1</v>
       </c>
       <c r="R5" s="22" t="n">
         <v>1.059038966181709</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.103304966101252</v>
+        <v>1.090391845338596</v>
       </c>
       <c r="T5" s="22" t="n">
         <v>1.033662771650104</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.100988314950311</v>
+        <v>1</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.089158310836869</v>
+        <v>1.006745876152352</v>
       </c>
     </row>
     <row r="6">
@@ -6959,59 +6959,59 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.5423624227965447</v>
+        <v>0.4472641359375587</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.2162579013828532</v>
+        <v>0.2055242765936679</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.2944513208405962</v>
+        <v>0.2951704477750785</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.348033254507724</v>
+        <v>0.3391479204812974</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.01203015469776147</v>
+        <v>0.01143623838882915</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.004990587149767699</v>
+        <v>0.004545319438385145</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.005544602223956262</v>
+        <v>0.005580485596580477</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.1569534423532081</v>
+        <v>0.1105255705063564</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.2944513208405962</v>
+        <v>0.2951704477750785</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.535501547168209</v>
+        <v>1.845582010035724</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>3.744065269471109</v>
+        <v>3.941977297825733</v>
       </c>
       <c r="P6" s="22" t="n">
         <v>2.744250269687163</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>2.865002652887033</v>
+        <v>2.948565919498675</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>7.207922839603708</v>
+        <v>7.59586766545211</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>11.55338826472338</v>
+        <v>12.69380614954795</v>
       </c>
       <c r="T6" s="22" t="n">
         <v>5.023840028233507</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>6.365120037644676</v>
+        <v>9.047680056467014</v>
       </c>
       <c r="V6" s="22" t="n">
         <v>2.744250269687163</v>
@@ -7023,44 +7023,44 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8327983393299926</v>
+        <v>0.8254626430205307</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8096836978162488</v>
+        <v>0.8101720324842954</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.8080481166265474</v>
+        <v>0.8100215809104399</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9971161974575372</v>
+        <v>1</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.08671242680996075</v>
+        <v>0.08686815339210943</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.05765819101020542</v>
+        <v>0.05769740383863319</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.02785519459334399</v>
+        <v>0.02803546691708154</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9990275008997133</v>
+        <v>1</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.8080481166265474</v>
+        <v>0.8100215809104399</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.188962416651547</v>
+        <v>1.203272204387912</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.223463244135135</v>
+        <v>1.225393417456736</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.232071925220783</v>
+        <v>1.229153631197593</v>
       </c>
       <c r="Q7" s="22" t="n">
         <v>1</v>
@@ -7072,13 +7072,13 @@
         <v>15.16747819855056</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>28.45834414899233</v>
+        <v>28.27535266022437</v>
       </c>
       <c r="U7" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.232071925220783</v>
+        <v>1.229153631197593</v>
       </c>
     </row>
     <row r="8">
@@ -7087,50 +7087,50 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9901659261131833</v>
+        <v>0.9932562541071859</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9906182436536</v>
+        <v>0.9927794756138005</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9955733987230979</v>
+        <v>0.9956409675244818</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9971161974575372</v>
+        <v>1</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9057100377256475</v>
+        <v>0.9073365996128138</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.8745293551151547</v>
+        <v>0.8751241148354365</v>
       </c>
       <c r="H8" s="34" t="n">
         <v>0.7927127140745338</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9990275008997133</v>
+        <v>1</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9955733987230979</v>
+        <v>0.9956409675244818</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.003871447521214</v>
+        <v>1.002628130141553</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.002901139344874</v>
+        <v>1.002825905283314</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.002581846965448</v>
+        <v>1.002486184262229</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.002892142911544</v>
+        <v>1</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.064008542173728</v>
+        <v>1.06282344364966</v>
       </c>
       <c r="S8" s="22" t="n">
         <v>1.088999878503684</v>
@@ -7139,10 +7139,10 @@
         <v>1.169215108096546</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.000973445775428</v>
+        <v>1</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.002581846965448</v>
+        <v>1.002486184262229</v>
       </c>
     </row>
     <row r="9">
@@ -7151,22 +7151,22 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9939993015334252</v>
+        <v>0.995866660806891</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9934921652160136</v>
+        <v>0.9955849763791038</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9981438168814724</v>
+        <v>0.9981163144287711</v>
       </c>
       <c r="E9" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9636832168725782</v>
+        <v>0.9643386093498632</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9523623614683085</v>
+        <v>0.9530100547314344</v>
       </c>
       <c r="H9" s="34" t="n">
         <v>0.9268516816761625</v>
@@ -7175,20 +7175,20 @@
         <v>1</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9981438168814724</v>
+        <v>0.9981163144287711</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.00387274387742</v>
+        <v>1.00415049459509</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.004385179047323</v>
+        <v>1.004434602495664</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.001859634941513</v>
+        <v>1.001887240539002</v>
       </c>
       <c r="Q9" s="22" t="n">
         <v>1</v>
@@ -7206,7 +7206,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.001859634941513</v>
+        <v>1.001887240539002</v>
       </c>
     </row>
     <row r="10">
@@ -7215,10 +7215,10 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="D10" s="34" t="n">
         <v>1</v>
@@ -7227,10 +7227,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="H10" s="34" t="n">
         <v>1</v>
@@ -7279,10 +7279,10 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="D11" s="34" t="n">
         <v>1</v>
@@ -7291,10 +7291,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="H11" s="34" t="n">
         <v>1</v>
@@ -7343,10 +7343,10 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="D12" s="34" t="n">
         <v>1</v>
@@ -7355,10 +7355,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="H12" s="34" t="n">
         <v>1</v>
@@ -7407,10 +7407,10 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="D13" s="34" t="n">
         <v>1</v>
@@ -7419,10 +7419,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="H13" s="34" t="n">
         <v>1</v>
@@ -7471,10 +7471,10 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="D14" s="34" t="n">
         <v>1</v>
@@ -7483,10 +7483,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="H14" s="34" t="n">
         <v>1</v>
@@ -7535,10 +7535,10 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="D15" s="34" t="n">
         <v>1</v>
@@ -7547,10 +7547,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="H15" s="34" t="n">
         <v>1</v>
@@ -7599,10 +7599,10 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="D16" s="34" t="n">
         <v>1</v>
@@ -7611,10 +7611,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="H16" s="34" t="n">
         <v>1</v>
@@ -7663,10 +7663,10 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.997848806242599</v>
+        <v>1</v>
       </c>
       <c r="D17" s="34" t="n">
         <v>1</v>
@@ -7675,10 +7675,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9993203710077243</v>
+        <v>1</v>
       </c>
       <c r="H17" s="34" t="n">
         <v>1</v>
@@ -7694,10 +7694,10 @@
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.002155831368383</v>
+        <v>1</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.002155831368383</v>
+        <v>1</v>
       </c>
       <c r="P17" s="22" t="n">
         <v>1</v>
@@ -7706,10 +7706,10 @@
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.000680091201974</v>
+        <v>1</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.000680091201974</v>
+        <v>1</v>
       </c>
       <c r="T17" s="22" t="n">
         <v>1</v>
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>4056.085</v>
+        <v>4047.085</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8615,73 +8615,73 @@
         <v/>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1404.76</v>
+        <v>145.65</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1806.35</v>
+        <v>672.3099999999999</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>2246.7</v>
+        <v>781.6299999999999</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>2246.7</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>2248.51</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>2248.51</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>4047.085</v>
+        <v>4013.103333333333</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8742,70 +8742,70 @@
         <v/>
       </c>
       <c r="T9" s="22" t="n">
-        <v>145.65</v>
+        <v>37.2</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>672.3099999999999</v>
+        <v>37.2</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>781.6299999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8843,7 +8843,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>4013.103333333333</v>
+        <v>3974.761666666667</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8869,67 +8869,67 @@
         <v/>
       </c>
       <c r="T10" s="22" t="n">
-        <v>37.2</v>
+        <v>74.08</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>37.2</v>
+        <v>169.63</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8970,7 +8970,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>3974.761666666667</v>
+        <v>3943.941666666667</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8996,64 +8996,64 @@
         <v/>
       </c>
       <c r="T11" s="22" t="n">
-        <v>74.08</v>
+        <v/>
       </c>
       <c r="U11" s="22" t="n">
-        <v>169.63</v>
+        <v>353.23</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9073,7 +9073,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9097,7 +9097,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>3943.941666666667</v>
+        <v>3936.333333333333</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9123,61 +9123,61 @@
         <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v/>
+        <v>215.06</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9224,7 +9224,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>3936.333333333333</v>
+        <v>3931.221666666667</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9250,58 +9250,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>215.06</v>
+        <v>345.05</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>254.8</v>
+        <v>345.05</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>254.8</v>
+        <v>360.36</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>254.8</v>
+        <v>393.11</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>254.8</v>
+        <v>393.11</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>254.8</v>
+        <v>393.11</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9351,7 +9351,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>3931.221666666667</v>
+        <v>3900.341666666667</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9377,55 +9377,55 @@
         <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>345.05</v>
+        <v>8.75</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>345.05</v>
+        <v>69.89</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>360.36</v>
+        <v>89.08</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>393.11</v>
+        <v>89.08</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>393.11</v>
+        <v>114.88</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>393.11</v>
+        <v>710.17</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>413.83</v>
+        <v>710.17</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9478,7 +9478,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>3900.341666666667</v>
+        <v>3892.478333333334</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9504,52 +9504,52 @@
         <v/>
       </c>
       <c r="T15" s="22" t="n">
-        <v>8.75</v>
+        <v/>
       </c>
       <c r="U15" s="22" t="n">
-        <v>69.89</v>
+        <v/>
       </c>
       <c r="V15" s="22" t="n">
-        <v>89.08</v>
+        <v/>
       </c>
       <c r="W15" s="22" t="n">
-        <v>89.08</v>
+        <v>26.23</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>114.88</v>
+        <v>2353.38</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>710.17</v>
+        <v>2353.38</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>710.17</v>
+        <v>2353.38</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>3892.478333333334</v>
+        <v>3878.116666666667</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9634,46 +9634,46 @@
         <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v/>
+        <v>41.26</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v/>
+        <v>159.16</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>26.23</v>
+        <v>202.28</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>2353.38</v>
+        <v>239.62</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>3878.116666666666</v>
+        <v>3863.521666666666</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9761,43 +9761,43 @@
         <v/>
       </c>
       <c r="U17" s="22" t="n">
-        <v>41.26</v>
+        <v>18.61</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>159.16</v>
+        <v>317.09</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>202.28</v>
+        <v>317.09</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>239.62</v>
+        <v>394.26</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9859,7 +9859,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>3863.521666666667</v>
+        <v>3710.681666666667</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9888,40 +9888,40 @@
         <v/>
       </c>
       <c r="U18" s="22" t="n">
-        <v>18.61</v>
+        <v/>
       </c>
       <c r="V18" s="22" t="n">
-        <v>317.09</v>
+        <v>53.09999999999999</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>317.09</v>
+        <v>71.75</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>71.75</v>
+        <v>148.62</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9986,7 +9986,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>3710.681666666667</v>
+        <v>3677.626666666667</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10021,34 +10021,34 @@
         <v/>
       </c>
       <c r="V19" s="22" t="n">
-        <v>53.09999999999999</v>
+        <v>23.89</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>71.75</v>
+        <v>23.89</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>71.75</v>
+        <v>23.89</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>71.75</v>
+        <v>50.12</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>71.75</v>
+        <v>100.86</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>71.75</v>
+        <v>148.62</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>71.75</v>
+        <v>148.62</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>71.75</v>
+        <v>148.62</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>71.75</v>
+        <v>148.62</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>71.75</v>
+        <v>148.62</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>148.62</v>
+        <v>20130.37</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>3677.626666666667</v>
+        <v>3674.496666666666</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10157,31 +10157,31 @@
         <v/>
       </c>
       <c r="V20" s="22" t="n">
-        <v>23.89</v>
+        <v/>
       </c>
       <c r="W20" s="22" t="n">
-        <v>23.89</v>
+        <v/>
       </c>
       <c r="X20" s="22" t="n">
-        <v>23.89</v>
+        <v>20130.37</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>50.12</v>
+        <v>20130.37</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>100.86</v>
+        <v>20130.37</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>148.62</v>
+        <v>20130.37</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>148.62</v>
+        <v>20130.37</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>148.62</v>
+        <v>20130.37</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>148.62</v>
+        <v>20130.37</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>20130.37</v>
+        <v>4955.64</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10252,7 +10252,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>3674.496666666666</v>
+        <v>3651.176666666667</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10293,28 +10293,28 @@
         <v/>
       </c>
       <c r="V21" s="22" t="n">
-        <v/>
+        <v>30.01</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v/>
+        <v>30.01</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>20130.37</v>
+        <v>30.01</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>20130.37</v>
+        <v>4941.21</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>20130.37</v>
+        <v>4955.64</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>20130.37</v>
+        <v>4955.64</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>20130.37</v>
+        <v>4955.64</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>20130.37</v>
+        <v>4955.64</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>4955.64</v>
+        <v>29.58</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10388,7 +10388,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>3651.176666666667</v>
+        <v>3634.736666666667</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10429,25 +10429,25 @@
         <v/>
       </c>
       <c r="V22" s="22" t="n">
-        <v>30.01</v>
+        <v/>
       </c>
       <c r="W22" s="22" t="n">
-        <v>30.01</v>
+        <v/>
       </c>
       <c r="X22" s="22" t="n">
-        <v>30.01</v>
+        <v>29.58</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>4941.21</v>
+        <v>29.58</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>4955.64</v>
+        <v>29.58</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>4955.64</v>
+        <v>29.58</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>4955.64</v>
+        <v>29.58</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>29.58</v>
+        <v>18.59</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10524,7 +10524,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>3634.736666666666</v>
+        <v>3561.746666666666</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10562,25 +10562,25 @@
         <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v/>
+        <v>18.59</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v/>
+        <v>18.59</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v/>
+        <v>18.59</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>29.58</v>
+        <v>18.59</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>29.58</v>
+        <v>18.59</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>29.58</v>
+        <v>18.59</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>29.58</v>
+        <v>18.59</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>18.59</v>
+        <v>1042.99</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10662,7 +10662,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>3561.746666666666</v>
+        <v>3552.425</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10697,25 +10697,25 @@
         <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v/>
+        <v>18.59</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>18.59</v>
+        <v>322.73</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>18.59</v>
+        <v>366.28</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>18.59</v>
+        <v>403.27</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>18.59</v>
+        <v>1042.99</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>18.59</v>
+        <v>1042.99</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>18.59</v>
+        <v>1042.99</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>1042.99</v>
+        <v>180.37</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10800,7 +10800,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>3552.425</v>
+        <v>3516.413333333333</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10835,22 +10835,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>18.59</v>
+        <v/>
       </c>
       <c r="U25" s="22" t="n">
-        <v>322.73</v>
+        <v/>
       </c>
       <c r="V25" s="22" t="n">
-        <v>366.28</v>
+        <v/>
       </c>
       <c r="W25" s="22" t="n">
-        <v>403.27</v>
+        <v>11.63</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>1042.99</v>
+        <v>180.37</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>1042.99</v>
+        <v>180.37</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>180.37</v>
+        <v/>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10938,7 +10938,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>3516.413333333333</v>
+        <v>3491.148333333333</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10982,10 +10982,10 @@
         <v/>
       </c>
       <c r="W26" s="22" t="n">
-        <v>11.63</v>
+        <v/>
       </c>
       <c r="X26" s="22" t="n">
-        <v>180.37</v>
+        <v/>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v/>
+        <v>5098.48</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11076,7 +11076,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>3491.148333333333</v>
+        <v>3432.901666666667</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11114,13 +11114,13 @@
         <v/>
       </c>
       <c r="U27" s="22" t="n">
-        <v/>
+        <v>2000</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v/>
+        <v>5098.48</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v/>
+        <v>5098.48</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>5098.48</v>
+        <v/>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11214,7 +11214,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>3432.901666666667</v>
+        <v>3404.695</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11252,10 +11252,10 @@
         <v/>
       </c>
       <c r="U28" s="22" t="n">
-        <v>2000</v>
+        <v/>
       </c>
       <c r="V28" s="22" t="n">
-        <v>5098.48</v>
+        <v/>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11353,7 +11353,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>3404.695</v>
+        <v>3393.415</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>100</v>
@@ -11491,7 +11491,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>3393.415</v>
+        <v>3351.325</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>100</v>
@@ -11629,7 +11629,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>3351.325</v>
+        <v>3295.045</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>100</v>
